--- a/Rivals of Aether DI calculator/input/RoA General Stats.xlsx
+++ b/Rivals of Aether DI calculator/input/RoA General Stats.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="358">
   <si>
     <t xml:space="preserve">Data extracted from devmode files and formatted by Kisuno. Info provided by Menace13, Youngblood and SNC. Click the tabs at the bottom of the page to view general stats. </t>
   </si>
@@ -1252,6 +1252,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etalus (armor)</t>
   </si>
   <si>
     <t xml:space="preserve">Forsburn</t>
@@ -2741,7 +2744,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.14"/>
@@ -3089,7 +3092,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.14"/>
@@ -3909,7 +3912,7 @@
       <selection pane="bottomLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="51" t="s">
@@ -3951,20 +3954,22 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="58" t="e">
-        <f aca="false" t="array" ref="A3:B16">IF(B1 = "Character",sort('All Stats'!A4:B17, 1, TRUE()), sort('All Stats'!A4:B17, 2, FALSE()))</f>
+        <f aca="false">IF(B1 = "Character",sort('All Stats'!A4:B18, 1, TRUE()), sort('All Stats'!A4:B18, 2, FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B3" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C3" s="55"/>
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
       <c r="F3" s="59" t="e">
-        <f aca="false" t="array" ref="F3:G16">IF(B1 = "Character",sort('All Stats'!C4:C17, 1, TRUE()), sort('All Stats'!C4:C17, 2, FALSE()))</f>
+        <f aca="false">IF(B1 = "Character",sort('All Stats'!C4:C18, 1, TRUE()), sort('All Stats'!C4:C18, 2, FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G3" s="59" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="H3" s="55"/>
@@ -3973,18 +3978,22 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B4" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
       <c r="F4" s="59" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="G4" s="59" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="H4" s="55"/>
@@ -3993,18 +4002,22 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B5" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
       <c r="F5" s="59" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="G5" s="59" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="H5" s="55"/>
@@ -4013,18 +4026,22 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B6" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
       <c r="E6" s="55"/>
       <c r="F6" s="59" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="G6" s="59" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="H6" s="55"/>
@@ -4033,18 +4050,22 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B7" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
       <c r="F7" s="59" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="G7" s="59" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="H7" s="55"/>
@@ -4053,18 +4074,22 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B8" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C8" s="55"/>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
       <c r="F8" s="59" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="G8" s="59" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="H8" s="55"/>
@@ -4073,18 +4098,22 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B9" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C9" s="55"/>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
       <c r="F9" s="59" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="G9" s="59" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="H9" s="55"/>
@@ -4093,18 +4122,22 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B10" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
       <c r="F10" s="59" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="G10" s="59" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="H10" s="55"/>
@@ -4113,18 +4146,22 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B11" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C11" s="55"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
       <c r="F11" s="59" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="G11" s="59" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="H11" s="55"/>
@@ -4133,18 +4170,22 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B12" s="60" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C12" s="55"/>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="F12" s="61" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="G12" s="61" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="H12" s="55"/>
@@ -4153,18 +4194,22 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B13" s="60" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C13" s="55"/>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="61" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="G13" s="61" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="H13" s="55"/>
@@ -4173,18 +4218,22 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B14" s="60" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
       <c r="F14" s="61" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="G14" s="61" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="H14" s="55"/>
@@ -4193,18 +4242,22 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B15" s="60" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="61" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="G15" s="61" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="H15" s="55"/>
@@ -4213,18 +4266,22 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="58" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B16" s="60" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="61" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="G16" s="61" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="H16" s="55"/>
@@ -4265,10 +4322,11 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="68" t="e">
-        <f aca="false" t="array" ref="A19:B32">IF(B1 = "Character",sort('All Stats'!D4:D17, 1, TRUE()), sort('All Stats'!D4:D17, 2, FALSE()))</f>
+        <f aca="false">IF(B1 = "Character",sort('All Stats'!D4:D18, 1, TRUE()), sort('All Stats'!D4:D18, 2, FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B19" s="68" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C19" s="55"/>
@@ -4288,9 +4346,11 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="68" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B20" s="68" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C20" s="55"/>
@@ -4310,9 +4370,11 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="68" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B21" s="68" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C21" s="55"/>
@@ -4332,9 +4394,11 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="68" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B22" s="68" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C22" s="55"/>
@@ -4354,9 +4418,11 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="68" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B23" s="68" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C23" s="55"/>
@@ -4376,9 +4442,11 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="68" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B24" s="68" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C24" s="55"/>
@@ -4398,9 +4466,11 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="68" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B25" s="68" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C25" s="55"/>
@@ -4420,9 +4490,11 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="68" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B26" s="68" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C26" s="55"/>
@@ -4442,9 +4514,11 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="68" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B27" s="68" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C27" s="55"/>
@@ -4464,9 +4538,11 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="70" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B28" s="70" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C28" s="55"/>
@@ -4486,9 +4562,11 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="70" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B29" s="70" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C29" s="55"/>
@@ -4508,9 +4586,11 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="70" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B30" s="70" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C30" s="55"/>
@@ -4530,9 +4610,11 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="70" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B31" s="70" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C31" s="55"/>
@@ -4552,9 +4634,11 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="70" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B32" s="70" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C32" s="55"/>
@@ -4606,10 +4690,11 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="78" t="e">
-        <f aca="false" t="array" ref="A35:B48">IF(B1 = "Character",sort('All Stats'!F4:F17, 1, TRUE()), sort('All Stats'!F4:F17, 2, FALSE()))</f>
+        <f aca="false">IF(B1 = "Character",sort('All Stats'!F4:F18, 1, TRUE()), sort('All Stats'!F4:F18, 2, FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B35" s="78" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C35" s="55"/>
@@ -4629,9 +4714,11 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="78" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B36" s="78" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C36" s="55"/>
@@ -4651,9 +4738,11 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="78" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B37" s="78" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C37" s="55"/>
@@ -4673,9 +4762,11 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="78" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B38" s="78" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C38" s="55"/>
@@ -4695,9 +4786,11 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="78" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B39" s="78" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C39" s="55"/>
@@ -4717,9 +4810,11 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="78" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B40" s="78" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C40" s="55"/>
@@ -4739,9 +4834,11 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="78" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B41" s="78" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C41" s="55"/>
@@ -4761,9 +4858,11 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="78" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B42" s="78" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C42" s="55"/>
@@ -4783,9 +4882,11 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="78" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B43" s="78" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C43" s="55"/>
@@ -4805,9 +4906,11 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="81" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B44" s="81" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C44" s="55"/>
@@ -4827,9 +4930,11 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="81" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B45" s="81" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C45" s="55"/>
@@ -4849,9 +4954,11 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="81" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B46" s="81" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C46" s="55"/>
@@ -4871,9 +4978,11 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="81" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B47" s="81" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C47" s="55"/>
@@ -4893,9 +5002,11 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="81" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="B48" s="81" t="e">
+        <f aca="false">#NAME?</f>
         <v>#NAME?</v>
       </c>
       <c r="C48" s="55"/>
@@ -4943,7 +5054,7 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="86" t="e">
-        <f aca="false" t="array" ref="A51:B64">IF(B1 = "Character",sort('All Stats'!C19:C32, 1, TRUE()), sort('All Stats'!C19:C32, 2, FALSE()))</f>
+        <f aca="false" t="array" ref="A51:B64">IF(B1 = "Character",sort('All Stats'!C21:C34, 1, TRUE()), sort('All Stats'!C21:C34, 2, FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B51" s="86" t="e">
@@ -5192,7 +5303,7 @@
   </mergeCells>
   <conditionalFormatting sqref="B1 E1 F1:G16 H1:H2 I1:J1 A2:B65 E18:G48 H33:I44 J33:J48 C65:J65">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>FIND(TRIM($A$1),#REF! )</formula>
+      <formula>FIND(TRIM($A$1),#ref! )</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -5228,7 +5339,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="51" t="s">
@@ -5270,7 +5381,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="58" t="e">
-        <f aca="false" t="array" ref="A3:B16">IF(B1 = "Character",sort('All Stats'!A35:B48, 1, TRUE()), sort('All Stats'!A35:B48, 2, FALSE()))</f>
+        <f aca="false" t="array" ref="A3:B16">IF(B1 = "Character",sort('All Stats'!A37:B50, 1, TRUE()), sort('All Stats'!A37:B50, 2, FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B3" s="58" t="e">
@@ -5280,7 +5391,7 @@
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
       <c r="F3" s="59" t="e">
-        <f aca="false" t="array" ref="F3:G16">IF(B1 = "Character",sort('All Stats'!C35:D48, 1, TRUE()), sort('All Stats'!C35:D48, 2, FALSE()))</f>
+        <f aca="false" t="array" ref="F3:G16">IF(B1 = "Character",sort('All Stats'!C37:D50, 1, TRUE()), sort('All Stats'!C37:D50, 2, FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G3" s="59" t="e">
@@ -5584,7 +5695,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="68" t="e">
-        <f aca="false" t="array" ref="A19:B32">IF(B1 = "Character",sort('All Stats'!E35:F48, 1, TRUE()), sort('All Stats'!E35:F48, 2, FALSE()))</f>
+        <f aca="false" t="array" ref="A19:B32">IF(B1 = "Character",sort('All Stats'!E37:F50, 1, TRUE()), sort('All Stats'!E37:F50, 2, FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B19" s="68" t="e">
@@ -5594,7 +5705,7 @@
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="69" t="e">
-        <f aca="false" t="array" ref="F19:G32">IF(B1 = "Character",sort('All Stats'!G35:H48, 1, TRUE()), sort('All Stats'!G35:H48, 2, FALSE()))</f>
+        <f aca="false" t="array" ref="F19:G32">IF(B1 = "Character",sort('All Stats'!G37:H50, 1, TRUE()), sort('All Stats'!G37:H50, 2, FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G19" s="69" t="e">
@@ -5898,7 +6009,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="78" t="e">
-        <f aca="false" t="array" ref="A35:B48">IF(B1 = "Character",sort('All Stats'!I35:J48, 1, TRUE()), sort('All Stats'!I35:J48, 2, FALSE()))</f>
+        <f aca="false" t="array" ref="A35:B48">IF(B1 = "Character",sort('All Stats'!I37:J50, 1, TRUE()), sort('All Stats'!I37:J50, 2, FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B35" s="93" t="e">
@@ -5908,7 +6019,7 @@
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
       <c r="F35" s="79" t="e">
-        <f aca="false" t="array" ref="F35:G48">IF(B1 = "Character",sort('All Stats'!A50:B63, 1, TRUE()), sort('All Stats'!A50:B63, 2, FALSE()))</f>
+        <f aca="false" t="array" ref="F35:G48">IF(B1 = "Character",sort('All Stats'!A52:B65, 1, TRUE()), sort('All Stats'!A52:B65, 2, FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G35" s="79" t="e">
@@ -6212,7 +6323,7 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="86" t="e">
-        <f aca="false" t="array" ref="A51:B64">IF(B1 = "Character",sort('All Stats'!C50:D63, 1, TRUE()), sort('All Stats'!C50:D63, 2, FALSE()))</f>
+        <f aca="false" t="array" ref="A51:B64">IF(B1 = "Character",sort('All Stats'!C52:D65, 1, TRUE()), sort('All Stats'!C52:D65, 2, FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B51" s="86" t="e">
@@ -6222,7 +6333,7 @@
       <c r="D51" s="55"/>
       <c r="E51" s="55"/>
       <c r="F51" s="97" t="e">
-        <f aca="false" t="array" ref="F51:G64">IF(B1 = "Character",sort('All Stats'!E50:F63, 1, TRUE()), sort('All Stats'!E50:F63, 2, FALSE()))</f>
+        <f aca="false" t="array" ref="F51:G64">IF(B1 = "Character",sort('All Stats'!E52:F65, 1, TRUE()), sort('All Stats'!E52:F65, 2, FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G51" s="98" t="e">
@@ -6526,7 +6637,7 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="104" t="e">
-        <f aca="false" t="array" ref="A67:B80">IF(B1 = "Character",sort('All Stats'!G50:H63, 1, TRUE()), sort('All Stats'!G50:H63, 2, FALSE()))</f>
+        <f aca="false" t="array" ref="A67:B80">IF(B1 = "Character",sort('All Stats'!G52:H65, 1, TRUE()), sort('All Stats'!G52:H65, 2, FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B67" s="104" t="e">
@@ -6536,7 +6647,7 @@
       <c r="D67" s="55"/>
       <c r="E67" s="55"/>
       <c r="F67" s="105" t="e">
-        <f aca="false" t="array" ref="F67:G80">IF(B1 = "Character",sort('All Stats'!I50:J63, 1, TRUE()), sort('All Stats'!I50:J63, 2, FALSE()))</f>
+        <f aca="false" t="array" ref="F67:G80">IF(B1 = "Character",sort('All Stats'!I52:J65, 1, TRUE()), sort('All Stats'!I52:J65, 2, FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G67" s="105" t="e">
@@ -6840,7 +6951,7 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="58" t="e">
-        <f aca="false" t="array" ref="A83:B96">IF(B1 = "Character",sort('All Stats'!A65:B78, 1, TRUE()), sort('All Stats'!A65:B78, 2, FALSE()))</f>
+        <f aca="false" t="array" ref="A83:B96">IF(B1 = "Character",sort('All Stats'!A67:B80, 1, TRUE()), sort('All Stats'!A67:B80, 2, FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B83" s="58" t="e">
@@ -6850,7 +6961,7 @@
       <c r="D83" s="55"/>
       <c r="E83" s="55"/>
       <c r="F83" s="59" t="e">
-        <f aca="false" t="array" ref="F83:G96">IF(B1 = "Character",sort('All Stats'!C65:D78, 1, TRUE()), sort('All Stats'!C65:D78, 2, FALSE()))</f>
+        <f aca="false" t="array" ref="F83:G96">IF(B1 = "Character",sort('All Stats'!C67:D80, 1, TRUE()), sort('All Stats'!C67:D80, 2, FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G83" s="59" t="e">
@@ -7154,7 +7265,7 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="68" t="e">
-        <f aca="false" t="array" ref="A99:B112">IF(B1 = "Character",sort('All Stats'!E65:F78, 1, TRUE()), sort('All Stats'!E65:F78, 2, FALSE()))</f>
+        <f aca="false" t="array" ref="A99:B112">IF(B1 = "Character",sort('All Stats'!E67:F80, 1, TRUE()), sort('All Stats'!E67:F80, 2, FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B99" s="108" t="e">
@@ -7164,7 +7275,7 @@
       <c r="D99" s="55"/>
       <c r="E99" s="55"/>
       <c r="F99" s="69" t="e">
-        <f aca="false" t="array" ref="F99:G112">IF(B1 = "Character",sort('All Stats'!G65:H78, 1, TRUE()), sort('All Stats'!G65:H78, 2, FALSE()))</f>
+        <f aca="false" t="array" ref="F99:G112">IF(B1 = "Character",sort('All Stats'!G67:H80, 1, TRUE()), sort('All Stats'!G67:H80, 2, FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G99" s="69" t="e">
@@ -7469,7 +7580,7 @@
   </mergeCells>
   <conditionalFormatting sqref="B1:B16 A2:A16 C2:D16 F2:G16 A18:G32 A34:J48 A50:J64 A66:J80 A82:J96 A98:J112">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>FIND(TRIM($A$1),#REF! )</formula>
+      <formula>FIND(TRIM($A$1),#ref! )</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -7505,7 +7616,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="51" t="s">
@@ -7547,7 +7658,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="58" t="e">
-        <f aca="false" t="array" ref="A3:B16">sort('All Stats'!A81:B94,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="A3:B16">sort('All Stats'!A83:B96,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B3" s="58" t="e">
@@ -7557,7 +7668,7 @@
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
       <c r="F3" s="59" t="e">
-        <f aca="false" t="array" ref="F3:G16">sort('All Stats'!C81:D94,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="F3:G16">sort('All Stats'!C83:D96,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G3" s="59" t="e">
@@ -7861,7 +7972,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="68" t="e">
-        <f aca="false" t="array" ref="A19:B32">sort('All Stats'!E81:F94,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="A19:B32">sort('All Stats'!E83:F96,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B19" s="68" t="e">
@@ -7871,7 +7982,7 @@
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="69" t="e">
-        <f aca="false" t="array" ref="F19:G32">sort('All Stats'!G81:H94,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="F19:G32">sort('All Stats'!G83:H96,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G19" s="109" t="e">
@@ -8175,7 +8286,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="78" t="e">
-        <f aca="false" t="array" ref="A35:B48">sort('All Stats'!I81:J94,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="A35:B48">sort('All Stats'!I83:J96,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B35" s="93" t="e">
@@ -8185,7 +8296,7 @@
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
       <c r="F35" s="79" t="e">
-        <f aca="false" t="array" ref="F35:G48">sort('All Stats'!A96:B109,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="F35:G48">sort('All Stats'!A98:B111,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G35" s="79" t="e">
@@ -8489,7 +8600,7 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="86" t="e">
-        <f aca="false" t="array" ref="A51:B64">sort('All Stats'!C96:D109,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="A51:B64">sort('All Stats'!C98:D111,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B51" s="86" t="e">
@@ -8499,7 +8610,7 @@
       <c r="D51" s="55"/>
       <c r="E51" s="55"/>
       <c r="F51" s="97" t="e">
-        <f aca="false" t="array" ref="F51:G64">sort('All Stats'!E96:F109,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="F51:G64">sort('All Stats'!E98:F111,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G51" s="98" t="e">
@@ -8803,7 +8914,7 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="104" t="e">
-        <f aca="false" t="array" ref="A67:B80">sort('All Stats'!G96:H109,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="A67:B80">sort('All Stats'!G98:H111,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B67" s="104" t="e">
@@ -8813,7 +8924,7 @@
       <c r="D67" s="55"/>
       <c r="E67" s="55"/>
       <c r="F67" s="105" t="e">
-        <f aca="false" t="array" ref="F67:G80">sort('All Stats'!I96:J109,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="F67:G80">sort('All Stats'!I98:J111,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G67" s="105" t="e">
@@ -9117,7 +9228,7 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="58" t="e">
-        <f aca="false" t="array" ref="A83:B96">sort('All Stats'!A111:B124,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="A83:B96">sort('All Stats'!A113:B126,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B83" s="58" t="e">
@@ -9127,7 +9238,7 @@
       <c r="D83" s="55"/>
       <c r="E83" s="55"/>
       <c r="F83" s="59" t="e">
-        <f aca="false" t="array" ref="F83:G96">sort('All Stats'!C111:D124,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="F83:G96">sort('All Stats'!C113:D126,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G83" s="59" t="e">
@@ -9431,7 +9542,7 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="68" t="e">
-        <f aca="false" t="array" ref="A99:B112">sort('All Stats'!E111:F124,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="A99:B112">sort('All Stats'!E113:F126,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B99" s="68" t="e">
@@ -9441,7 +9552,7 @@
       <c r="D99" s="55"/>
       <c r="E99" s="55"/>
       <c r="F99" s="69" t="e">
-        <f aca="false" t="array" ref="F99:G112">sort('All Stats'!G111:H124,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="F99:G112">sort('All Stats'!G113:H126,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G99" s="69" t="e">
@@ -9745,7 +9856,7 @@
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="78" t="e">
-        <f aca="false" t="array" ref="A115:B128">sort('All Stats'!I111:J124,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="A115:B128">sort('All Stats'!I113:J126,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B115" s="93" t="e">
@@ -9755,7 +9866,7 @@
       <c r="D115" s="55"/>
       <c r="E115" s="55"/>
       <c r="F115" s="79" t="e">
-        <f aca="false" t="array" ref="F115:G128">sort('All Stats'!A126:B139,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="F115:G128">sort('All Stats'!A128:B141,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G115" s="79" t="e">
@@ -10059,7 +10170,7 @@
   </mergeCells>
   <conditionalFormatting sqref="B1:B129 A2:A129 F2:I129 E17 J17:J129 E65 E81:E129">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>FIND(TRIM($A$1),#REF! )</formula>
+      <formula>FIND(TRIM($A$1),#ref! )</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -10095,7 +10206,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="51" t="s">
@@ -10137,7 +10248,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="58" t="e">
-        <f aca="false" t="array" ref="A3:B16">sort('All Stats'!A142:B155,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="A3:B16">sort('All Stats'!A144:B157,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B3" s="58" t="e">
@@ -10147,7 +10258,7 @@
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
       <c r="F3" s="59" t="e">
-        <f aca="false" t="array" ref="F3:G16">sort('All Stats'!C142:D155,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="F3:G16">sort('All Stats'!C144:D157,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G3" s="59" t="e">
@@ -10451,7 +10562,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="68" t="e">
-        <f aca="false" t="array" ref="A19:B32">sort('All Stats'!E142:F155,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="A19:B32">sort('All Stats'!E144:F157,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B19" s="68" t="e">
@@ -10461,7 +10572,7 @@
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="69" t="e">
-        <f aca="false" t="array" ref="F19:G32">sort('All Stats'!G142:H155,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="F19:G32">sort('All Stats'!G144:H157,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G19" s="109" t="e">
@@ -10765,7 +10876,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="78" t="e">
-        <f aca="false" t="array" ref="A35:B48">sort('All Stats'!I142:J155,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="A35:B48">sort('All Stats'!I144:J157,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B35" s="78" t="e">
@@ -10775,7 +10886,7 @@
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
       <c r="F35" s="79" t="e">
-        <f aca="false" t="array" ref="F35:G48">sort('All Stats'!A157:B170,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="F35:G48">sort('All Stats'!A159:B172,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G35" s="79" t="e">
@@ -11079,7 +11190,7 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="86" t="e">
-        <f aca="false" t="array" ref="A51:B64">sort('All Stats'!C157:D170,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="A51:B64">sort('All Stats'!C159:D172,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B51" s="86" t="e">
@@ -11089,7 +11200,7 @@
       <c r="D51" s="55"/>
       <c r="E51" s="55"/>
       <c r="F51" s="97" t="e">
-        <f aca="false" t="array" ref="F51:G64">sort('All Stats'!E157:F170,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="F51:G64">sort('All Stats'!E159:F172,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G51" s="97" t="e">
@@ -11393,7 +11504,7 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="104" t="e">
-        <f aca="false" t="array" ref="A67:B80">sort('All Stats'!G157:H170,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="A67:B80">sort('All Stats'!G159:H172,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B67" s="104" t="e">
@@ -11403,7 +11514,7 @@
       <c r="D67" s="55"/>
       <c r="E67" s="55"/>
       <c r="F67" s="105" t="e">
-        <f aca="false" t="array" ref="F67:G80">sort('All Stats'!I157:J170,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="F67:G80">sort('All Stats'!I159:J172,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G67" s="105" t="e">
@@ -11707,7 +11818,7 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="58" t="e">
-        <f aca="false" t="array" ref="A83:B96">sort('All Stats'!A172:B185,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="A83:B96">sort('All Stats'!A174:B187,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B83" s="58" t="e">
@@ -11717,7 +11828,7 @@
       <c r="D83" s="55"/>
       <c r="E83" s="55"/>
       <c r="F83" s="59" t="e">
-        <f aca="false" t="array" ref="F83:G96">sort('All Stats'!C172:D185,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="F83:G96">sort('All Stats'!C174:D187,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="G83" s="59" t="e">
@@ -12017,7 +12128,7 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="68" t="e">
-        <f aca="false" t="array" ref="A99:B112">sort('All Stats'!E172:F185,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
+        <f aca="false" t="array" ref="A99:B112">sort('All Stats'!E174:F187,IF(B1 = "Character", 1, 2), IF(B1 = "Character", TRUE(), FALSE()))</f>
         <v>#NAME?</v>
       </c>
       <c r="B99" s="108" t="e">
@@ -12270,16 +12381,16 @@
   </mergeCells>
   <conditionalFormatting sqref="B1:B16 A2:A16 C2:D16 F2:G16 A18:G32 A34:J48 A50:J64 A66:B80 F66:G80 A82:B96 F82:G96 A98:J112">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>FIND(TRIM($A$1),#REF! )</formula>
+      <formula>FIND(TRIM($A$1),#ref! )</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Select a character to highlight their name." showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A1" type="list">
+      <formula1>"None,Absa,Clairen,Elliana,Etalus,Forsburn,Kragg,Maypul,Orcane,Ori,Ranno,Shovel Knight,Sylvanos,Wrastor,Zetterburn"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Select a sort order." showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B1" type="list">
       <formula1>"Character,Value"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Select a character to highlight their name." showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A1" type="list">
-      <formula1>"None,Absa,Clairen,Elliana,Etalus,Forsburn,Kragg,Maypul,Orcane,Ori,Ranno,Shovel Knight,Sylvanos,Wrastor,Zetterburn"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -12304,7 +12415,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="101.29"/>
@@ -15569,15 +15680,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J185"/>
+  <dimension ref="A1:J187"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="51" t="s">
@@ -15712,10 +15823,10 @@
         <v>283</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D8" s="68" t="s">
         <v>278</v>
@@ -15732,13 +15843,13 @@
         <v>284</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E9" s="69" t="s">
         <v>276</v>
@@ -15749,30 +15860,30 @@
     </row>
     <row r="10" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="58" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="58" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C11" s="59" t="s">
         <v>278</v>
@@ -15781,18 +15892,18 @@
         <v>278</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F11" s="78" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="58" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C12" s="59" t="s">
         <v>278</v>
@@ -15801,27 +15912,27 @@
         <v>278</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="58" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D13" s="68" t="s">
         <v>278</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="F13" s="78" t="s">
         <v>274</v>
@@ -15829,19 +15940,19 @@
     </row>
     <row r="14" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" s="58" t="s">
         <v>294</v>
       </c>
-      <c r="B14" s="58" t="s">
-        <v>295</v>
-      </c>
       <c r="C14" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D14" s="68" t="s">
         <v>278</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F14" s="78" t="s">
         <v>274</v>
@@ -15849,106 +15960,110 @@
     </row>
     <row r="15" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="B15" s="58" t="s">
-        <v>295</v>
-      </c>
       <c r="C15" s="59" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D15" s="68" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="69" t="s">
         <v>299</v>
       </c>
-      <c r="B16" s="58" t="s">
-        <v>300</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>274</v>
-      </c>
-      <c r="D16" s="68" t="s">
-        <v>275</v>
-      </c>
-      <c r="E16" s="69" t="s">
-        <v>276</v>
-      </c>
       <c r="F16" s="78" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="B17" s="58" t="s">
-        <v>277</v>
-      </c>
       <c r="C17" s="59" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E17" s="69" t="s">
         <v>276</v>
       </c>
       <c r="F17" s="78" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>278</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>276</v>
+      </c>
+      <c r="F18" s="78" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="53" t="s">
+    <row r="19" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="78"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B20" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="B19" s="137" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="79" t="s">
-        <v>212</v>
-      </c>
-      <c r="B20" s="137" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="138"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="136"/>
       <c r="E20" s="136"/>
       <c r="F20" s="136"/>
     </row>
     <row r="21" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="79" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B21" s="137" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="86"/>
       <c r="D21" s="136"/>
@@ -15957,22 +16072,22 @@
     </row>
     <row r="22" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="79" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="B22" s="137" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C22" s="86"/>
-      <c r="D22" s="136"/>
+      <c r="D22" s="138"/>
       <c r="E22" s="136"/>
       <c r="F22" s="136"/>
     </row>
     <row r="23" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="79" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="B23" s="137" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="86"/>
       <c r="D23" s="136"/>
@@ -15981,10 +16096,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="79" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="B24" s="137" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C24" s="86"/>
       <c r="D24" s="136"/>
@@ -15993,7 +16108,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="79" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B25" s="137" t="n">
         <v>10</v>
@@ -16005,10 +16120,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="79" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B26" s="137" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C26" s="86"/>
       <c r="D26" s="136"/>
@@ -16017,7 +16132,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="79" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B27" s="137" t="n">
         <v>10</v>
@@ -16029,10 +16144,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="79" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="B28" s="137" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="86"/>
       <c r="D28" s="136"/>
@@ -16041,7 +16156,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="79" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B29" s="137" t="n">
         <v>10</v>
@@ -16053,10 +16168,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="79" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="B30" s="137" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="86"/>
       <c r="D30" s="136"/>
@@ -16065,10 +16180,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="79" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B31" s="137" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C31" s="86"/>
       <c r="D31" s="136"/>
@@ -16077,143 +16192,103 @@
     </row>
     <row r="32" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="79" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B32" s="137" t="n">
+        <v>11</v>
+      </c>
+      <c r="C32" s="86"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="B33" s="137" t="n">
+        <v>8</v>
+      </c>
+      <c r="C33" s="86"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="79" t="s">
+        <v>302</v>
+      </c>
+      <c r="B34" s="137" t="n">
         <v>10</v>
       </c>
-      <c r="C32" s="86"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="135" t="s">
-        <v>302</v>
-      </c>
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="135"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="88" t="s">
+      <c r="C34" s="86"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="135" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="135"/>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="88"/>
-      <c r="C34" s="56" t="s">
+      <c r="B36" s="88"/>
+      <c r="C36" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="64" t="s">
+      <c r="D36" s="57"/>
+      <c r="E36" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="F34" s="65"/>
-      <c r="G34" s="66" t="s">
+      <c r="F36" s="65"/>
+      <c r="G36" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="H34" s="67"/>
-      <c r="I34" s="74" t="s">
+      <c r="H36" s="67"/>
+      <c r="I36" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="J34" s="75"/>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="B35" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="C35" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="D35" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="E35" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="F35" s="68" t="s">
-        <v>305</v>
-      </c>
-      <c r="G35" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="H35" s="69" t="s">
-        <v>277</v>
-      </c>
-      <c r="I35" s="78" t="s">
-        <v>208</v>
-      </c>
-      <c r="J35" s="140" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="B36" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="D36" s="59" t="s">
-        <v>306</v>
-      </c>
-      <c r="E36" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="F36" s="68" t="s">
-        <v>307</v>
-      </c>
-      <c r="G36" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="H36" s="69" t="s">
-        <v>287</v>
-      </c>
-      <c r="I36" s="78" t="s">
-        <v>212</v>
-      </c>
-      <c r="J36" s="140" t="n">
-        <v>16</v>
-      </c>
+      <c r="J36" s="75"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="58" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B37" s="58" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D37" s="59" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E37" s="68" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G37" s="69" t="s">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="H37" s="69" t="s">
         <v>277</v>
       </c>
       <c r="I37" s="78" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J37" s="140" t="n">
         <v>8</v>
@@ -16221,159 +16296,159 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="B38" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="E38" s="68" t="s">
+        <v>212</v>
+      </c>
+      <c r="F38" s="68" t="s">
+        <v>308</v>
+      </c>
+      <c r="G38" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="B38" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="C38" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="D38" s="59" t="s">
-        <v>310</v>
-      </c>
-      <c r="E38" s="68" t="s">
-        <v>243</v>
-      </c>
-      <c r="F38" s="68" t="s">
-        <v>310</v>
-      </c>
-      <c r="G38" s="69" t="s">
-        <v>284</v>
-      </c>
       <c r="H38" s="69" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="I38" s="78" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="J38" s="140" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="58" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="B39" s="58" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="D39" s="59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E39" s="68" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="F39" s="68" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G39" s="69" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="H39" s="69" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="I39" s="78" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="J39" s="140" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="58" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="B40" s="58" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="D40" s="59" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E40" s="68" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="F40" s="68" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G40" s="69" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H40" s="69" t="s">
         <v>277</v>
       </c>
       <c r="I40" s="78" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="J40" s="140" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" s="59" t="s">
+        <v>312</v>
+      </c>
+      <c r="E41" s="68" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="68" t="s">
+        <v>313</v>
+      </c>
+      <c r="G41" s="69" t="s">
         <v>264</v>
       </c>
-      <c r="B41" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="C41" s="59" t="s">
-        <v>264</v>
-      </c>
-      <c r="D41" s="59" t="s">
-        <v>316</v>
-      </c>
-      <c r="E41" s="68" t="s">
-        <v>264</v>
-      </c>
-      <c r="F41" s="68" t="s">
-        <v>316</v>
-      </c>
-      <c r="G41" s="69" t="s">
-        <v>256</v>
-      </c>
       <c r="H41" s="69" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I41" s="78" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="J41" s="140" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="58" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="C42" s="59" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D42" s="59" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E42" s="68" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G42" s="69" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="H42" s="69" t="s">
         <v>277</v>
       </c>
       <c r="I42" s="78" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J42" s="140" t="n">
         <v>12</v>
@@ -16381,437 +16456,437 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="58" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="C43" s="59" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D43" s="59" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E43" s="68" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F43" s="68" t="s">
         <v>317</v>
       </c>
       <c r="G43" s="69" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="H43" s="69" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I43" s="78" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="J43" s="140" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="58" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="C44" s="59" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="D44" s="59" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E44" s="68" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G44" s="69" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="H44" s="69" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="I44" s="78" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="J44" s="140" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="58" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B45" s="58" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="D45" s="59" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E45" s="68" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G45" s="69" t="s">
-        <v>216</v>
+        <v>302</v>
       </c>
       <c r="H45" s="69" t="s">
         <v>319</v>
       </c>
       <c r="I45" s="78" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="J45" s="140" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="58" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="B46" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="D46" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="E46" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="F46" s="68" t="s">
+        <v>308</v>
+      </c>
+      <c r="G46" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="H46" s="69" t="s">
         <v>320</v>
       </c>
-      <c r="C46" s="59" t="s">
-        <v>296</v>
-      </c>
-      <c r="D46" s="59" t="s">
-        <v>307</v>
-      </c>
-      <c r="E46" s="68" t="s">
-        <v>296</v>
-      </c>
-      <c r="F46" s="68" t="s">
-        <v>317</v>
-      </c>
-      <c r="G46" s="69" t="s">
+      <c r="I46" s="78" t="s">
         <v>260</v>
       </c>
-      <c r="H46" s="69" t="s">
-        <v>319</v>
-      </c>
-      <c r="I46" s="78" t="s">
-        <v>296</v>
-      </c>
       <c r="J46" s="140" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="58" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D47" s="59" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E47" s="68" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="G47" s="69" t="s">
-        <v>294</v>
+        <v>216</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I47" s="78" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J47" s="140" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="58" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B48" s="58" t="s">
+        <v>321</v>
+      </c>
+      <c r="C48" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="D48" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="E48" s="68" t="s">
+        <v>297</v>
+      </c>
+      <c r="F48" s="68" t="s">
+        <v>318</v>
+      </c>
+      <c r="G48" s="69" t="s">
+        <v>260</v>
+      </c>
+      <c r="H48" s="69" t="s">
+        <v>320</v>
+      </c>
+      <c r="I48" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="J48" s="140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="B49" s="58" t="s">
+        <v>304</v>
+      </c>
+      <c r="C49" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="D49" s="59" t="s">
+        <v>322</v>
+      </c>
+      <c r="E49" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="F49" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="G49" s="69" t="s">
+        <v>295</v>
+      </c>
+      <c r="H49" s="69" t="s">
+        <v>320</v>
+      </c>
+      <c r="I49" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="J49" s="140" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="B50" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="C48" s="59" t="s">
-        <v>301</v>
-      </c>
-      <c r="D48" s="59" t="s">
-        <v>306</v>
-      </c>
-      <c r="E48" s="68" t="s">
-        <v>301</v>
-      </c>
-      <c r="F48" s="68" t="s">
-        <v>312</v>
-      </c>
-      <c r="G48" s="69" t="s">
-        <v>296</v>
-      </c>
-      <c r="H48" s="69" t="s">
-        <v>319</v>
-      </c>
-      <c r="I48" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="J48" s="140" t="n">
+      <c r="C50" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="D50" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="E50" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="F50" s="68" t="s">
+        <v>313</v>
+      </c>
+      <c r="G50" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="H50" s="69" t="s">
+        <v>320</v>
+      </c>
+      <c r="I50" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="J50" s="140" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="92" t="s">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="B49" s="92"/>
-      <c r="C49" s="83" t="s">
+      <c r="B51" s="92"/>
+      <c r="C51" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D49" s="84"/>
-      <c r="E49" s="110" t="s">
+      <c r="D51" s="84"/>
+      <c r="E51" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="F49" s="111"/>
-      <c r="G49" s="100" t="s">
+      <c r="F51" s="111"/>
+      <c r="G51" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="H49" s="101"/>
-      <c r="I49" s="102" t="s">
+      <c r="H51" s="101"/>
+      <c r="I51" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="J49" s="103"/>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="B50" s="79" t="s">
-        <v>305</v>
-      </c>
-      <c r="C50" s="86" t="s">
-        <v>208</v>
-      </c>
-      <c r="D50" s="86" t="s">
-        <v>313</v>
-      </c>
-      <c r="E50" s="97" t="s">
-        <v>208</v>
-      </c>
-      <c r="F50" s="141" t="n">
-        <v>10</v>
-      </c>
-      <c r="G50" s="104" t="s">
-        <v>208</v>
-      </c>
-      <c r="H50" s="104" t="s">
-        <v>318</v>
-      </c>
-      <c r="I50" s="105" t="s">
-        <v>208</v>
-      </c>
-      <c r="J50" s="105" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="79" t="s">
-        <v>212</v>
-      </c>
-      <c r="B51" s="79" t="s">
-        <v>311</v>
-      </c>
-      <c r="C51" s="86" t="s">
-        <v>243</v>
-      </c>
-      <c r="D51" s="86" t="s">
-        <v>274</v>
-      </c>
-      <c r="E51" s="97" t="s">
-        <v>212</v>
-      </c>
-      <c r="F51" s="141" t="n">
-        <v>10</v>
-      </c>
-      <c r="G51" s="104" t="s">
-        <v>212</v>
-      </c>
-      <c r="H51" s="104" t="s">
-        <v>277</v>
-      </c>
-      <c r="I51" s="105" t="s">
-        <v>212</v>
-      </c>
-      <c r="J51" s="105" t="s">
-        <v>323</v>
-      </c>
+      <c r="J51" s="103"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="79" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B52" s="79" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C52" s="86" t="s">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="D52" s="86" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E52" s="97" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F52" s="141" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G52" s="104" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H52" s="104" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="I52" s="105" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J52" s="105" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="79" t="s">
+        <v>312</v>
+      </c>
+      <c r="C53" s="86" t="s">
         <v>243</v>
       </c>
-      <c r="B53" s="79" t="s">
-        <v>311</v>
-      </c>
-      <c r="C53" s="86" t="s">
-        <v>284</v>
-      </c>
       <c r="D53" s="86" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="E53" s="97" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="F53" s="141" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G53" s="104" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="H53" s="104" t="s">
+        <v>277</v>
+      </c>
+      <c r="I53" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="J53" s="105" t="s">
         <v>324</v>
-      </c>
-      <c r="I53" s="105" t="s">
-        <v>243</v>
-      </c>
-      <c r="J53" s="105" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="79" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="B54" s="79" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C54" s="86" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D54" s="86" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E54" s="97" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="F54" s="141" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G54" s="104" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="H54" s="104" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="I54" s="105" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="J54" s="105" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="79" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="B55" s="79" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C55" s="86" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D55" s="86" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="E55" s="97" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="F55" s="141" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G55" s="104" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="H55" s="104" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="I55" s="105" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="J55" s="105" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="79" t="s">
+        <v>284</v>
+      </c>
+      <c r="B56" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="C56" s="86" t="s">
         <v>264</v>
       </c>
-      <c r="B56" s="79" t="s">
-        <v>311</v>
-      </c>
-      <c r="C56" s="86" t="s">
-        <v>256</v>
-      </c>
       <c r="D56" s="86" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E56" s="97" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F56" s="141" t="n">
         <v>10</v>
       </c>
       <c r="G56" s="104" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="H56" s="104" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="I56" s="105" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="J56" s="105" t="s">
         <v>326</v>
@@ -16819,63 +16894,63 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="79" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B57" s="79" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C57" s="86" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D57" s="86" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="E57" s="97" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F57" s="141" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G57" s="104" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H57" s="104" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="I57" s="105" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J57" s="105" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="79" t="s">
+        <v>264</v>
+      </c>
+      <c r="B58" s="79" t="s">
+        <v>312</v>
+      </c>
+      <c r="C58" s="86" t="s">
         <v>256</v>
       </c>
-      <c r="B58" s="79" t="s">
-        <v>311</v>
-      </c>
-      <c r="C58" s="86" t="s">
-        <v>301</v>
-      </c>
       <c r="D58" s="86" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="E58" s="97" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F58" s="141" t="n">
         <v>10</v>
       </c>
       <c r="G58" s="104" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="H58" s="104" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I58" s="105" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="J58" s="105" t="s">
         <v>327</v>
@@ -16883,261 +16958,269 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="79" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="B59" s="79" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C59" s="86" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="D59" s="86" t="s">
+        <v>314</v>
+      </c>
+      <c r="E59" s="97" t="s">
+        <v>289</v>
+      </c>
+      <c r="F59" s="141" t="n">
+        <v>12</v>
+      </c>
+      <c r="G59" s="104" t="s">
+        <v>289</v>
+      </c>
+      <c r="H59" s="104" t="s">
         <v>319</v>
       </c>
-      <c r="E59" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="F59" s="141" t="n">
-        <v>8</v>
-      </c>
-      <c r="G59" s="104" t="s">
-        <v>260</v>
-      </c>
-      <c r="H59" s="104" t="s">
-        <v>328</v>
-      </c>
       <c r="I59" s="105" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="J59" s="105" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="79" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B60" s="79" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C60" s="86" t="s">
-        <v>216</v>
+        <v>302</v>
       </c>
       <c r="D60" s="86" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="E60" s="97" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="F60" s="141" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G60" s="104" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="H60" s="104" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="I60" s="105" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="J60" s="105" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="79" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="B61" s="79" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C61" s="86" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" s="86" t="s">
+        <v>320</v>
+      </c>
+      <c r="E61" s="97" t="s">
         <v>260</v>
       </c>
-      <c r="D61" s="86" t="s">
-        <v>319</v>
-      </c>
-      <c r="E61" s="97" t="s">
-        <v>296</v>
-      </c>
       <c r="F61" s="141" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G61" s="104" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="H61" s="104" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="I61" s="105" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="J61" s="105" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="79" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B62" s="79" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C62" s="86" t="s">
-        <v>294</v>
+        <v>216</v>
       </c>
       <c r="D62" s="86" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E62" s="97" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F62" s="141" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G62" s="104" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H62" s="104" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="I62" s="105" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J62" s="105" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="79" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B63" s="79" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C63" s="86" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="D63" s="86" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E63" s="97" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F63" s="141" t="n">
         <v>10</v>
       </c>
       <c r="G63" s="104" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H63" s="104" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I63" s="105" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J63" s="105" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="53" t="s">
+      <c r="A64" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="B64" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="C64" s="86" t="s">
+        <v>295</v>
+      </c>
+      <c r="D64" s="86" t="s">
+        <v>320</v>
+      </c>
+      <c r="E64" s="97" t="s">
+        <v>300</v>
+      </c>
+      <c r="F64" s="141" t="n">
+        <v>10</v>
+      </c>
+      <c r="G64" s="104" t="s">
+        <v>300</v>
+      </c>
+      <c r="H64" s="104" t="s">
+        <v>330</v>
+      </c>
+      <c r="I64" s="105" t="s">
+        <v>300</v>
+      </c>
+      <c r="J64" s="105" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="79" t="s">
+        <v>302</v>
+      </c>
+      <c r="B65" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="C65" s="86" t="s">
+        <v>297</v>
+      </c>
+      <c r="D65" s="86" t="s">
+        <v>320</v>
+      </c>
+      <c r="E65" s="97" t="s">
+        <v>302</v>
+      </c>
+      <c r="F65" s="141" t="n">
+        <v>10</v>
+      </c>
+      <c r="G65" s="104" t="s">
+        <v>302</v>
+      </c>
+      <c r="H65" s="104" t="s">
+        <v>319</v>
+      </c>
+      <c r="I65" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="J65" s="105" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="B64" s="53"/>
-      <c r="C64" s="56" t="s">
+      <c r="B66" s="53"/>
+      <c r="C66" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="D64" s="56"/>
-      <c r="E64" s="64" t="s">
+      <c r="D66" s="56"/>
+      <c r="E66" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="F64" s="64"/>
-      <c r="G64" s="66" t="s">
+      <c r="F66" s="64"/>
+      <c r="G66" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="H64" s="66"/>
-      <c r="I64" s="136"/>
-      <c r="J64" s="136"/>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="B65" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="C65" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="D65" s="59" t="s">
-        <v>311</v>
-      </c>
-      <c r="E65" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="F65" s="142" t="n">
-        <v>6</v>
-      </c>
-      <c r="G65" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="H65" s="69" t="s">
-        <v>331</v>
-      </c>
-      <c r="I65" s="136"/>
-      <c r="J65" s="136"/>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="B66" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="C66" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="D66" s="59" t="s">
-        <v>311</v>
-      </c>
-      <c r="E66" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="F66" s="142" t="n">
-        <v>8</v>
-      </c>
-      <c r="G66" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="H66" s="69" t="s">
-        <v>269</v>
-      </c>
+      <c r="H66" s="66"/>
       <c r="I66" s="136"/>
       <c r="J66" s="136"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="58" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B67" s="58" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C67" s="59" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D67" s="59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E67" s="68" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F67" s="142" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G67" s="69" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H67" s="69" t="s">
         <v>332</v>
@@ -17147,53 +17230,53 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="58" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="B68" s="58" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C68" s="59" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="D68" s="59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E68" s="68" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="F68" s="142" t="n">
         <v>8</v>
       </c>
       <c r="G68" s="69" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="H68" s="69" t="s">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="I68" s="136"/>
       <c r="J68" s="136"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="58" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="B69" s="58" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C69" s="59" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="D69" s="59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E69" s="68" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="F69" s="142" t="n">
         <v>8</v>
       </c>
       <c r="G69" s="69" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="H69" s="69" t="s">
         <v>333</v>
@@ -17203,575 +17286,567 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="58" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="B70" s="58" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C70" s="59" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="D70" s="59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E70" s="68" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="F70" s="142" t="n">
         <v>8</v>
       </c>
       <c r="G70" s="69" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="H70" s="69" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="I70" s="136"/>
       <c r="J70" s="136"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="58" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B71" s="58" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C71" s="59" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D71" s="59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E71" s="68" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F71" s="142" t="n">
         <v>8</v>
       </c>
       <c r="G71" s="69" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="H71" s="69" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="I71" s="136"/>
       <c r="J71" s="136"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="58" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B72" s="58" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C72" s="59" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D72" s="59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E72" s="68" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F72" s="142" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G72" s="69" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H72" s="69" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="I72" s="136"/>
       <c r="J72" s="136"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="58" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B73" s="58" t="s">
         <v>278</v>
       </c>
       <c r="C73" s="59" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D73" s="59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E73" s="68" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F73" s="142" t="n">
         <v>8</v>
       </c>
       <c r="G73" s="69" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="H73" s="69" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I73" s="136"/>
       <c r="J73" s="136"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="58" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="B74" s="58" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C74" s="59" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="D74" s="59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E74" s="68" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="F74" s="142" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G74" s="69" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="H74" s="69" t="s">
-        <v>334</v>
+        <v>276</v>
       </c>
       <c r="I74" s="136"/>
       <c r="J74" s="136"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="58" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B75" s="58" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C75" s="59" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="D75" s="59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E75" s="68" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="F75" s="142" t="n">
         <v>8</v>
       </c>
       <c r="G75" s="69" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="H75" s="69" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="I75" s="136"/>
       <c r="J75" s="136"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="58" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="B76" s="58" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C76" s="59" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="D76" s="59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E76" s="68" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="F76" s="142" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G76" s="69" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="H76" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I76" s="136"/>
       <c r="J76" s="136"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="58" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B77" s="58" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="C77" s="59" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D77" s="59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E77" s="68" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F77" s="142" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G77" s="69" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H77" s="69" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="I77" s="136"/>
       <c r="J77" s="136"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="58" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B78" s="58" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C78" s="59" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D78" s="59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E78" s="68" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F78" s="142" t="n">
+        <v>9</v>
+      </c>
+      <c r="G78" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="H78" s="69" t="s">
+        <v>334</v>
+      </c>
+      <c r="I78" s="136"/>
+      <c r="J78" s="136"/>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="B79" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="C79" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="D79" s="59" t="s">
+        <v>312</v>
+      </c>
+      <c r="E79" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="F79" s="142" t="n">
+        <v>7</v>
+      </c>
+      <c r="G79" s="69" t="s">
+        <v>300</v>
+      </c>
+      <c r="H79" s="69" t="s">
+        <v>290</v>
+      </c>
+      <c r="I79" s="136"/>
+      <c r="J79" s="136"/>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="B80" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="C80" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="D80" s="59" t="s">
+        <v>312</v>
+      </c>
+      <c r="E80" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="F80" s="142" t="n">
         <v>8</v>
       </c>
-      <c r="G78" s="69" t="s">
-        <v>301</v>
-      </c>
-      <c r="H78" s="69" t="s">
-        <v>332</v>
-      </c>
-      <c r="I78" s="139"/>
-      <c r="J78" s="139"/>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="135" t="s">
-        <v>336</v>
-      </c>
-      <c r="B79" s="135"/>
-      <c r="C79" s="135"/>
-      <c r="D79" s="135"/>
-      <c r="E79" s="135"/>
-      <c r="F79" s="135"/>
-      <c r="G79" s="135"/>
-      <c r="H79" s="135"/>
-      <c r="I79" s="135"/>
-      <c r="J79" s="135"/>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="53" t="s">
+      <c r="G80" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="H80" s="69" t="s">
+        <v>333</v>
+      </c>
+      <c r="I80" s="139"/>
+      <c r="J80" s="139"/>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="135" t="s">
+        <v>337</v>
+      </c>
+      <c r="B81" s="135"/>
+      <c r="C81" s="135"/>
+      <c r="D81" s="135"/>
+      <c r="E81" s="135"/>
+      <c r="F81" s="135"/>
+      <c r="G81" s="135"/>
+      <c r="H81" s="135"/>
+      <c r="I81" s="135"/>
+      <c r="J81" s="135"/>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="54"/>
-      <c r="C80" s="56" t="s">
+      <c r="B82" s="54"/>
+      <c r="C82" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="D80" s="57"/>
-      <c r="E80" s="64" t="s">
+      <c r="D82" s="57"/>
+      <c r="E82" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="F80" s="65"/>
-      <c r="G80" s="66" t="s">
+      <c r="F82" s="65"/>
+      <c r="G82" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="H80" s="67"/>
-      <c r="I80" s="74" t="s">
+      <c r="H82" s="67"/>
+      <c r="I82" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="J80" s="75"/>
-    </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="B81" s="58" t="s">
-        <v>311</v>
-      </c>
-      <c r="C81" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="D81" s="59" t="s">
-        <v>277</v>
-      </c>
-      <c r="E81" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="F81" s="68" t="s">
-        <v>310</v>
-      </c>
-      <c r="G81" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="H81" s="143" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I81" s="78" t="s">
-        <v>208</v>
-      </c>
-      <c r="J81" s="140" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="B82" s="58" t="s">
-        <v>305</v>
-      </c>
-      <c r="C82" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="D82" s="59" t="s">
-        <v>277</v>
-      </c>
-      <c r="E82" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="F82" s="68" t="s">
-        <v>310</v>
-      </c>
-      <c r="G82" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="H82" s="143" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="I82" s="78" t="s">
-        <v>212</v>
-      </c>
-      <c r="J82" s="140" t="n">
-        <v>10</v>
-      </c>
+      <c r="J82" s="75"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="58" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B83" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="C83" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="D83" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="E83" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="F83" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="C83" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="D83" s="59" t="s">
-        <v>331</v>
-      </c>
-      <c r="E83" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="F83" s="68" t="s">
-        <v>310</v>
-      </c>
       <c r="G83" s="69" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H83" s="143" t="n">
-        <v>9.99</v>
+        <v>7.6</v>
       </c>
       <c r="I83" s="78" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J83" s="140" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="58" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="B84" s="58" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C84" s="59" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="D84" s="59" t="s">
         <v>277</v>
       </c>
       <c r="E84" s="68" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="F84" s="68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G84" s="69" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="H84" s="143" t="n">
-        <v>11</v>
+        <v>10.99</v>
       </c>
       <c r="I84" s="78" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="J84" s="140" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="58" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="B85" s="58" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C85" s="59" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="D85" s="59" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="E85" s="68" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="F85" s="68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G85" s="69" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="H85" s="143" t="n">
-        <v>10.99</v>
+        <v>9.99</v>
       </c>
       <c r="I85" s="78" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="J85" s="140" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="58" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="B86" s="58" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C86" s="59" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="D86" s="59" t="s">
         <v>277</v>
       </c>
       <c r="E86" s="68" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="F86" s="68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G86" s="69" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="H86" s="143" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I86" s="78" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="J86" s="140" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="58" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B87" s="58" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C87" s="59" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D87" s="59" t="s">
         <v>277</v>
       </c>
       <c r="E87" s="68" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F87" s="68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G87" s="69" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="H87" s="143" t="n">
-        <v>10.5</v>
+        <v>10.99</v>
       </c>
       <c r="I87" s="78" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="J87" s="140" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="58" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B88" s="58" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C88" s="59" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D88" s="59" t="s">
         <v>277</v>
       </c>
       <c r="E88" s="68" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F88" s="68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G88" s="69" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H88" s="143" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="I88" s="78" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J88" s="140" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="58" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B89" s="58" t="s">
         <v>312</v>
       </c>
       <c r="C89" s="59" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D89" s="59" t="s">
         <v>277</v>
       </c>
       <c r="E89" s="68" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F89" s="68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G89" s="69" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="H89" s="143" t="n">
         <v>10.5</v>
       </c>
       <c r="I89" s="78" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="J89" s="140" t="n">
         <v>10.5</v>
@@ -17779,31 +17854,31 @@
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="58" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="B90" s="58" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C90" s="59" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="D90" s="59" t="s">
         <v>277</v>
       </c>
       <c r="E90" s="68" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="F90" s="68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G90" s="69" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="H90" s="143" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="I90" s="78" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="J90" s="140" t="n">
         <v>11.5</v>
@@ -17811,907 +17886,907 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="58" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B91" s="58" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C91" s="59" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="D91" s="59" t="s">
         <v>277</v>
       </c>
       <c r="E91" s="68" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="F91" s="68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G91" s="69" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="H91" s="143" t="n">
-        <v>10.99</v>
+        <v>10.5</v>
       </c>
       <c r="I91" s="78" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="J91" s="140" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="58" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="B92" s="58" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="C92" s="59" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="D92" s="59" t="s">
         <v>277</v>
       </c>
       <c r="E92" s="68" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="F92" s="68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G92" s="69" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="H92" s="143" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I92" s="78" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="J92" s="140" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="58" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B93" s="58" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="C93" s="59" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D93" s="59" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="E93" s="68" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F93" s="68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G93" s="69" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H93" s="143" t="n">
-        <v>7.6</v>
+        <v>10.99</v>
       </c>
       <c r="I93" s="78" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J93" s="140" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="58" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B94" s="58" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C94" s="59" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D94" s="59" t="s">
         <v>277</v>
       </c>
       <c r="E94" s="68" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F94" s="68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G94" s="69" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H94" s="143" t="n">
+        <v>12</v>
+      </c>
+      <c r="I94" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="J94" s="140" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="B95" s="58" t="s">
+        <v>338</v>
+      </c>
+      <c r="C95" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="D95" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="E95" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="F95" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="G95" s="69" t="s">
+        <v>300</v>
+      </c>
+      <c r="H95" s="143" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I95" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="J95" s="140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="B96" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="C96" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="D96" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="E96" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="F96" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="G96" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="H96" s="143" t="n">
         <v>10.99</v>
       </c>
-      <c r="I94" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="J94" s="140" t="n">
+      <c r="I96" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="J96" s="140" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="76" t="s">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="B95" s="77"/>
-      <c r="C95" s="83" t="s">
+      <c r="B97" s="77"/>
+      <c r="C97" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="D95" s="84"/>
-      <c r="E95" s="110" t="s">
+      <c r="D97" s="84"/>
+      <c r="E97" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="F95" s="111"/>
-      <c r="G95" s="100" t="s">
+      <c r="F97" s="111"/>
+      <c r="G97" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="H95" s="101"/>
-      <c r="I95" s="102" t="s">
+      <c r="H97" s="101"/>
+      <c r="I97" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="J95" s="112"/>
-    </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="B96" s="79" t="s">
-        <v>326</v>
-      </c>
-      <c r="C96" s="86" t="s">
-        <v>208</v>
-      </c>
-      <c r="D96" s="86" t="s">
-        <v>317</v>
-      </c>
-      <c r="E96" s="97" t="s">
-        <v>208</v>
-      </c>
-      <c r="F96" s="141" t="n">
-        <v>7</v>
-      </c>
-      <c r="G96" s="104" t="s">
-        <v>208</v>
-      </c>
-      <c r="H96" s="104" t="s">
-        <v>311</v>
-      </c>
-      <c r="I96" s="105" t="s">
-        <v>208</v>
-      </c>
-      <c r="J96" s="105" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="79" t="s">
-        <v>212</v>
-      </c>
-      <c r="B97" s="79" t="s">
-        <v>311</v>
-      </c>
-      <c r="C97" s="86" t="s">
-        <v>212</v>
-      </c>
-      <c r="D97" s="86" t="s">
-        <v>311</v>
-      </c>
-      <c r="E97" s="97" t="s">
-        <v>212</v>
-      </c>
-      <c r="F97" s="141" t="n">
-        <v>9</v>
-      </c>
-      <c r="G97" s="104" t="s">
-        <v>212</v>
-      </c>
-      <c r="H97" s="104" t="s">
-        <v>310</v>
-      </c>
-      <c r="I97" s="105" t="s">
-        <v>212</v>
-      </c>
-      <c r="J97" s="105" t="s">
-        <v>313</v>
-      </c>
+      <c r="J97" s="112"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="79" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B98" s="79" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="C98" s="86" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D98" s="86" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E98" s="97" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F98" s="141" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G98" s="104" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H98" s="104" t="s">
         <v>312</v>
       </c>
       <c r="I98" s="105" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J98" s="105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="79" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="B99" s="79" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="C99" s="86" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="D99" s="86" t="s">
+        <v>312</v>
+      </c>
+      <c r="E99" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="F99" s="141" t="n">
+        <v>9</v>
+      </c>
+      <c r="G99" s="104" t="s">
+        <v>212</v>
+      </c>
+      <c r="H99" s="104" t="s">
         <v>311</v>
       </c>
-      <c r="E99" s="97" t="s">
-        <v>243</v>
-      </c>
-      <c r="F99" s="141" t="n">
-        <v>8</v>
-      </c>
-      <c r="G99" s="104" t="s">
-        <v>243</v>
-      </c>
-      <c r="H99" s="104" t="s">
-        <v>312</v>
-      </c>
       <c r="I99" s="105" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="J99" s="105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="79" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="B100" s="79" t="s">
         <v>311</v>
       </c>
       <c r="C100" s="86" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="D100" s="86" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E100" s="97" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="F100" s="141" t="n">
         <v>8</v>
       </c>
       <c r="G100" s="104" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="H100" s="104" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I100" s="105" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="J100" s="105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="79" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="B101" s="79" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C101" s="86" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="D101" s="86" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E101" s="97" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="F101" s="141" t="n">
         <v>8</v>
       </c>
       <c r="G101" s="104" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="H101" s="104" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I101" s="105" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="J101" s="105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="79" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B102" s="79" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C102" s="86" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D102" s="86" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E102" s="97" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F102" s="141" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G102" s="104" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="H102" s="104" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="I102" s="105" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="J102" s="105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="79" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B103" s="79" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="C103" s="86" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D103" s="86" t="s">
         <v>312</v>
       </c>
       <c r="E103" s="97" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F103" s="141" t="n">
         <v>8</v>
       </c>
       <c r="G103" s="104" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H103" s="104" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I103" s="105" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J103" s="105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="79" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B104" s="79" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C104" s="86" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D104" s="86" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E104" s="97" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F104" s="141" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G104" s="104" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="H104" s="104" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I104" s="105" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="J104" s="105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="79" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="B105" s="79" t="s">
         <v>312</v>
       </c>
       <c r="C105" s="86" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="D105" s="86" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E105" s="97" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="F105" s="141" t="n">
         <v>8</v>
       </c>
       <c r="G105" s="104" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="H105" s="104" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I105" s="105" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="J105" s="105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="79" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B106" s="79" t="s">
+        <v>312</v>
+      </c>
+      <c r="C106" s="86" t="s">
+        <v>256</v>
+      </c>
+      <c r="D106" s="86" t="s">
+        <v>313</v>
+      </c>
+      <c r="E106" s="97" t="s">
+        <v>256</v>
+      </c>
+      <c r="F106" s="141" t="n">
+        <v>8</v>
+      </c>
+      <c r="G106" s="104" t="s">
+        <v>256</v>
+      </c>
+      <c r="H106" s="104" t="s">
         <v>311</v>
       </c>
-      <c r="C106" s="86" t="s">
-        <v>294</v>
-      </c>
-      <c r="D106" s="86" t="s">
-        <v>312</v>
-      </c>
-      <c r="E106" s="97" t="s">
-        <v>294</v>
-      </c>
-      <c r="F106" s="141" t="n">
-        <v>9</v>
-      </c>
-      <c r="G106" s="104" t="s">
-        <v>294</v>
-      </c>
-      <c r="H106" s="104" t="s">
-        <v>310</v>
-      </c>
       <c r="I106" s="105" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="J106" s="105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="79" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="B107" s="79" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="C107" s="86" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="D107" s="86" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E107" s="97" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="F107" s="141" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G107" s="104" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="H107" s="104" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I107" s="105" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="J107" s="105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="79" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B108" s="79" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C108" s="86" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D108" s="86" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E108" s="97" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F108" s="141" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G108" s="104" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H108" s="104" t="s">
         <v>311</v>
       </c>
       <c r="I108" s="105" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J108" s="105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="79" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B109" s="79" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="C109" s="86" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D109" s="86" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E109" s="97" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F109" s="141" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G109" s="104" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H109" s="104" t="s">
         <v>312</v>
       </c>
       <c r="I109" s="105" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J109" s="105" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="B110" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="C110" s="86" t="s">
+        <v>300</v>
+      </c>
+      <c r="D110" s="86" t="s">
+        <v>318</v>
+      </c>
+      <c r="E110" s="97" t="s">
+        <v>300</v>
+      </c>
+      <c r="F110" s="141" t="n">
+        <v>7</v>
+      </c>
+      <c r="G110" s="104" t="s">
+        <v>300</v>
+      </c>
+      <c r="H110" s="104" t="s">
+        <v>312</v>
+      </c>
+      <c r="I110" s="105" t="s">
+        <v>300</v>
+      </c>
+      <c r="J110" s="105" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="79" t="s">
+        <v>302</v>
+      </c>
+      <c r="B111" s="79" t="s">
+        <v>312</v>
+      </c>
+      <c r="C111" s="86" t="s">
+        <v>302</v>
+      </c>
+      <c r="D111" s="86" t="s">
+        <v>312</v>
+      </c>
+      <c r="E111" s="97" t="s">
+        <v>302</v>
+      </c>
+      <c r="F111" s="141" t="n">
+        <v>8</v>
+      </c>
+      <c r="G111" s="104" t="s">
+        <v>302</v>
+      </c>
+      <c r="H111" s="104" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="53" t="s">
+      <c r="I111" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="J111" s="105" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="B110" s="54"/>
-      <c r="C110" s="56" t="s">
+      <c r="B112" s="54"/>
+      <c r="C112" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="D110" s="57"/>
-      <c r="E110" s="64" t="s">
+      <c r="D112" s="57"/>
+      <c r="E112" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="F110" s="65"/>
-      <c r="G110" s="66" t="s">
+      <c r="F112" s="65"/>
+      <c r="G112" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="H110" s="67"/>
-      <c r="I110" s="74" t="s">
+      <c r="H112" s="67"/>
+      <c r="I112" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="J110" s="75"/>
-    </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="B111" s="58" t="s">
-        <v>339</v>
-      </c>
-      <c r="C111" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="D111" s="59" t="s">
-        <v>339</v>
-      </c>
-      <c r="E111" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="F111" s="68" t="s">
-        <v>317</v>
-      </c>
-      <c r="G111" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="H111" s="69" t="s">
-        <v>224</v>
-      </c>
-      <c r="I111" s="78" t="s">
-        <v>208</v>
-      </c>
-      <c r="J111" s="140" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="B112" s="58" t="s">
-        <v>339</v>
-      </c>
-      <c r="C112" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="D112" s="59" t="s">
-        <v>339</v>
-      </c>
-      <c r="E112" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="F112" s="68" t="s">
-        <v>307</v>
-      </c>
-      <c r="G112" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="H112" s="69" t="s">
-        <v>285</v>
-      </c>
-      <c r="I112" s="78" t="s">
-        <v>212</v>
-      </c>
-      <c r="J112" s="140" t="n">
-        <v>10</v>
-      </c>
+      <c r="J112" s="75"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="58" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B113" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C113" s="59" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D113" s="59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E113" s="68" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F113" s="68" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G113" s="69" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H113" s="69" t="s">
-        <v>340</v>
+        <v>224</v>
       </c>
       <c r="I113" s="78" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J113" s="140" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="58" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="B114" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C114" s="59" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="D114" s="59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E114" s="68" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="F114" s="68" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G114" s="69" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="H114" s="69" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="I114" s="78" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="J114" s="140" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="58" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="B115" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C115" s="59" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="D115" s="59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E115" s="68" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="F115" s="68" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="G115" s="69" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="H115" s="69" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I115" s="78" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="J115" s="140" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="58" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="B116" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C116" s="59" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="D116" s="59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E116" s="68" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="F116" s="68" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G116" s="69" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="H116" s="69" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="I116" s="78" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="J116" s="140" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="58" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B117" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C117" s="59" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D117" s="59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E117" s="68" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F117" s="68" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G117" s="69" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="H117" s="69" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I117" s="78" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="J117" s="140" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="58" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B118" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C118" s="59" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D118" s="59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E118" s="68" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F118" s="68" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G118" s="69" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H118" s="69" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="I118" s="78" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J118" s="140" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="58" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B119" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C119" s="59" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D119" s="59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E119" s="68" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F119" s="68" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G119" s="69" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="H119" s="69" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="I119" s="78" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="J119" s="140" t="n">
         <v>10</v>
@@ -18719,201 +18794,233 @@
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="58" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="B120" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C120" s="59" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="D120" s="59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E120" s="68" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="F120" s="68" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G120" s="69" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="H120" s="69" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="I120" s="78" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="J120" s="140" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="58" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B121" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C121" s="59" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="D121" s="59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E121" s="68" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="F121" s="68" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="G121" s="69" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="H121" s="69" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="I121" s="78" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="J121" s="140" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="58" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="B122" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C122" s="59" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="D122" s="59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E122" s="68" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="F122" s="68" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G122" s="69" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="H122" s="69" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="I122" s="78" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="J122" s="140" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="58" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B123" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C123" s="59" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D123" s="59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E123" s="68" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F123" s="68" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G123" s="69" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H123" s="69" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="I123" s="78" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J123" s="140" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="58" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B124" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C124" s="59" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D124" s="59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E124" s="68" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F124" s="68" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="G124" s="69" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H124" s="69" t="s">
+        <v>319</v>
+      </c>
+      <c r="I124" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="J124" s="140" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="B125" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="I124" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="J124" s="140" t="n">
+      <c r="C125" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="D125" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="E125" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="F125" s="68" t="s">
+        <v>308</v>
+      </c>
+      <c r="G125" s="69" t="s">
+        <v>300</v>
+      </c>
+      <c r="H125" s="69" t="s">
+        <v>291</v>
+      </c>
+      <c r="I125" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="J125" s="140" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="B126" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="C126" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="D126" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="E126" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="F126" s="68" t="s">
+        <v>308</v>
+      </c>
+      <c r="G126" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="H126" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="I126" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="J126" s="140" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="76" t="s">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="B125" s="77"/>
-      <c r="C125" s="136"/>
-      <c r="D125" s="136"/>
-      <c r="E125" s="136"/>
-      <c r="F125" s="136"/>
-      <c r="G125" s="136"/>
-      <c r="H125" s="136"/>
-      <c r="I125" s="136"/>
-      <c r="J125" s="136"/>
-    </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="B126" s="79" t="s">
-        <v>305</v>
-      </c>
-      <c r="C126" s="136"/>
-      <c r="D126" s="136"/>
-      <c r="E126" s="136"/>
-      <c r="F126" s="136"/>
-      <c r="G126" s="136"/>
-      <c r="H126" s="136"/>
-      <c r="I126" s="136"/>
-      <c r="J126" s="136"/>
-    </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="79" t="s">
-        <v>212</v>
-      </c>
-      <c r="B127" s="79" t="s">
-        <v>305</v>
-      </c>
+      <c r="B127" s="77"/>
       <c r="C127" s="136"/>
       <c r="D127" s="136"/>
       <c r="E127" s="136"/>
@@ -18925,10 +19032,10 @@
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="79" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B128" s="79" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C128" s="136"/>
       <c r="D128" s="136"/>
@@ -18941,10 +19048,10 @@
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="79" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="B129" s="79" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C129" s="136"/>
       <c r="D129" s="136"/>
@@ -18957,10 +19064,10 @@
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="79" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="B130" s="79" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C130" s="136"/>
       <c r="D130" s="136"/>
@@ -18973,10 +19080,10 @@
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="79" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="B131" s="79" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C131" s="136"/>
       <c r="D131" s="136"/>
@@ -18989,10 +19096,10 @@
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="79" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B132" s="79" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C132" s="136"/>
       <c r="D132" s="136"/>
@@ -19005,10 +19112,10 @@
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="79" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B133" s="79" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C133" s="136"/>
       <c r="D133" s="136"/>
@@ -19021,10 +19128,10 @@
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="79" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B134" s="79" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C134" s="136"/>
       <c r="D134" s="136"/>
@@ -19037,10 +19144,10 @@
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="79" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="B135" s="79" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C135" s="136"/>
       <c r="D135" s="136"/>
@@ -19053,10 +19160,10 @@
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="79" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B136" s="79" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C136" s="136"/>
       <c r="D136" s="136"/>
@@ -19069,10 +19176,10 @@
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="79" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="B137" s="79" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C137" s="136"/>
       <c r="D137" s="136"/>
@@ -19085,10 +19192,10 @@
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="79" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B138" s="79" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C138" s="136"/>
       <c r="D138" s="136"/>
@@ -19101,1035 +19208,1019 @@
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="79" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B139" s="79" t="s">
-        <v>305</v>
-      </c>
-      <c r="C139" s="139"/>
-      <c r="D139" s="139"/>
-      <c r="E139" s="139"/>
-      <c r="F139" s="139"/>
-      <c r="G139" s="139"/>
-      <c r="H139" s="139"/>
-      <c r="I139" s="139"/>
-      <c r="J139" s="139"/>
+        <v>312</v>
+      </c>
+      <c r="C139" s="136"/>
+      <c r="D139" s="136"/>
+      <c r="E139" s="136"/>
+      <c r="F139" s="136"/>
+      <c r="G139" s="136"/>
+      <c r="H139" s="136"/>
+      <c r="I139" s="136"/>
+      <c r="J139" s="136"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="135" t="s">
-        <v>341</v>
-      </c>
-      <c r="B140" s="135"/>
-      <c r="C140" s="135"/>
-      <c r="D140" s="135"/>
-      <c r="E140" s="135"/>
-      <c r="F140" s="135"/>
-      <c r="G140" s="135"/>
-      <c r="H140" s="135"/>
-      <c r="I140" s="135"/>
-      <c r="J140" s="135"/>
+      <c r="A140" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="B140" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="C140" s="136"/>
+      <c r="D140" s="136"/>
+      <c r="E140" s="136"/>
+      <c r="F140" s="136"/>
+      <c r="G140" s="136"/>
+      <c r="H140" s="136"/>
+      <c r="I140" s="136"/>
+      <c r="J140" s="136"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="53" t="s">
+      <c r="A141" s="79" t="s">
+        <v>302</v>
+      </c>
+      <c r="B141" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="C141" s="139"/>
+      <c r="D141" s="139"/>
+      <c r="E141" s="139"/>
+      <c r="F141" s="139"/>
+      <c r="G141" s="139"/>
+      <c r="H141" s="139"/>
+      <c r="I141" s="139"/>
+      <c r="J141" s="139"/>
+    </row>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="135" t="s">
+        <v>342</v>
+      </c>
+      <c r="B142" s="135"/>
+      <c r="C142" s="135"/>
+      <c r="D142" s="135"/>
+      <c r="E142" s="135"/>
+      <c r="F142" s="135"/>
+      <c r="G142" s="135"/>
+      <c r="H142" s="135"/>
+      <c r="I142" s="135"/>
+      <c r="J142" s="135"/>
+    </row>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="B141" s="54"/>
-      <c r="C141" s="56" t="s">
+      <c r="B143" s="54"/>
+      <c r="C143" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="D141" s="57"/>
-      <c r="E141" s="64" t="s">
+      <c r="D143" s="57"/>
+      <c r="E143" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="F141" s="65"/>
-      <c r="G141" s="66" t="s">
+      <c r="F143" s="65"/>
+      <c r="G143" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="H141" s="67"/>
-      <c r="I141" s="74" t="s">
+      <c r="H143" s="67"/>
+      <c r="I143" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="J141" s="75"/>
-    </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="B142" s="58" t="s">
-        <v>313</v>
-      </c>
-      <c r="C142" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="D142" s="59" t="s">
-        <v>317</v>
-      </c>
-      <c r="E142" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="F142" s="68" t="s">
-        <v>342</v>
-      </c>
-      <c r="G142" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="H142" s="143" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="I142" s="78" t="s">
-        <v>208</v>
-      </c>
-      <c r="J142" s="78" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="B143" s="58" t="s">
-        <v>313</v>
-      </c>
-      <c r="C143" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="D143" s="59" t="s">
-        <v>317</v>
-      </c>
-      <c r="E143" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="F143" s="68" t="s">
-        <v>342</v>
-      </c>
-      <c r="G143" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="H143" s="143" t="n">
-        <v>9</v>
-      </c>
-      <c r="I143" s="78" t="s">
-        <v>212</v>
-      </c>
-      <c r="J143" s="78" t="s">
-        <v>322</v>
-      </c>
+      <c r="J143" s="75"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="58" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B144" s="58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C144" s="59" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D144" s="59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E144" s="68" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F144" s="68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G144" s="69" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H144" s="143" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="I144" s="78" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J144" s="78" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="58" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="B145" s="58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C145" s="59" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="D145" s="59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E145" s="68" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="F145" s="68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G145" s="69" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="H145" s="143" t="n">
         <v>9</v>
       </c>
       <c r="I145" s="78" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="J145" s="78" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="58" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="B146" s="58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C146" s="59" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="D146" s="59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E146" s="68" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="F146" s="68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G146" s="69" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="H146" s="143" t="n">
         <v>9</v>
       </c>
       <c r="I146" s="78" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="J146" s="78" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="58" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="B147" s="58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C147" s="59" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="D147" s="59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E147" s="68" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="F147" s="68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G147" s="69" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="H147" s="143" t="n">
         <v>9</v>
       </c>
       <c r="I147" s="78" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="J147" s="78" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="58" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B148" s="58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C148" s="59" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D148" s="59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E148" s="68" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F148" s="68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G148" s="69" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="H148" s="143" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I148" s="78" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="J148" s="78" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="58" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B149" s="58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C149" s="59" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D149" s="59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E149" s="68" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F149" s="68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G149" s="69" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H149" s="143" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I149" s="78" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J149" s="78" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="58" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B150" s="58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C150" s="59" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D150" s="59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E150" s="68" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F150" s="68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G150" s="69" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="H150" s="143" t="n">
         <v>10</v>
       </c>
       <c r="I150" s="78" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="J150" s="78" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="58" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="B151" s="58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C151" s="59" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="D151" s="59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E151" s="68" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="F151" s="68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G151" s="69" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="H151" s="143" t="n">
         <v>10</v>
       </c>
       <c r="I151" s="78" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="J151" s="78" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="58" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B152" s="58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C152" s="59" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="D152" s="59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E152" s="68" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="F152" s="68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G152" s="69" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="H152" s="143" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I152" s="78" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="J152" s="78" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="58" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="B153" s="58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C153" s="59" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="D153" s="59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E153" s="68" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="F153" s="68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G153" s="69" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="H153" s="143" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I153" s="78" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="J153" s="78" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="58" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B154" s="58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C154" s="59" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D154" s="59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E154" s="68" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F154" s="68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G154" s="69" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H154" s="143" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="I154" s="78" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J154" s="78" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="58" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B155" s="58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C155" s="59" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D155" s="59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E155" s="68" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F155" s="68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G155" s="69" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H155" s="143" t="n">
+        <v>11</v>
+      </c>
+      <c r="I155" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="J155" s="78" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="B156" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="C156" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="D156" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="E156" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="F156" s="68" t="s">
+        <v>343</v>
+      </c>
+      <c r="G156" s="69" t="s">
+        <v>300</v>
+      </c>
+      <c r="H156" s="143" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I156" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="J156" s="78" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="B157" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="C157" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="D157" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="E157" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="F157" s="68" t="s">
+        <v>343</v>
+      </c>
+      <c r="G157" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="H157" s="143" t="n">
         <v>9</v>
       </c>
-      <c r="I155" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="J155" s="78" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="76" t="s">
+      <c r="I157" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="J157" s="78" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="B156" s="77"/>
-      <c r="C156" s="83" t="s">
+      <c r="B158" s="77"/>
+      <c r="C158" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="D156" s="84"/>
-      <c r="E156" s="110" t="s">
+      <c r="D158" s="84"/>
+      <c r="E158" s="110" t="s">
         <v>196</v>
       </c>
-      <c r="F156" s="111"/>
-      <c r="G156" s="100" t="s">
+      <c r="F158" s="111"/>
+      <c r="G158" s="100" t="s">
         <v>198</v>
       </c>
-      <c r="H156" s="101"/>
-      <c r="I156" s="102" t="s">
+      <c r="H158" s="101"/>
+      <c r="I158" s="102" t="s">
         <v>200</v>
       </c>
-      <c r="J156" s="112"/>
-    </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="B157" s="79" t="s">
-        <v>343</v>
-      </c>
-      <c r="C157" s="86" t="s">
-        <v>208</v>
-      </c>
-      <c r="D157" s="86" t="s">
-        <v>339</v>
-      </c>
-      <c r="E157" s="97" t="s">
-        <v>208</v>
-      </c>
-      <c r="F157" s="97" t="s">
-        <v>343</v>
-      </c>
-      <c r="G157" s="104" t="s">
-        <v>208</v>
-      </c>
-      <c r="H157" s="104" t="s">
-        <v>305</v>
-      </c>
-      <c r="I157" s="105" t="s">
-        <v>208</v>
-      </c>
-      <c r="J157" s="105" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="79" t="s">
-        <v>212</v>
-      </c>
-      <c r="B158" s="79" t="s">
-        <v>343</v>
-      </c>
-      <c r="C158" s="86" t="s">
-        <v>212</v>
-      </c>
-      <c r="D158" s="86" t="s">
-        <v>339</v>
-      </c>
-      <c r="E158" s="97" t="s">
-        <v>212</v>
-      </c>
-      <c r="F158" s="97" t="s">
-        <v>343</v>
-      </c>
-      <c r="G158" s="104" t="s">
-        <v>212</v>
-      </c>
-      <c r="H158" s="104" t="s">
-        <v>305</v>
-      </c>
-      <c r="I158" s="105" t="s">
-        <v>212</v>
-      </c>
-      <c r="J158" s="105" t="s">
-        <v>317</v>
-      </c>
+      <c r="J158" s="112"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="79" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B159" s="79" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C159" s="86" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D159" s="86" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E159" s="97" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F159" s="97" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G159" s="104" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H159" s="104" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I159" s="105" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J159" s="105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="79" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="B160" s="79" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C160" s="86" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="D160" s="86" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E160" s="97" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="F160" s="97" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G160" s="104" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="H160" s="104" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I160" s="105" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="J160" s="105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="79" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="B161" s="79" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C161" s="86" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="D161" s="86" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E161" s="97" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="F161" s="97" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G161" s="104" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="H161" s="104" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I161" s="105" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="J161" s="105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="79" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="B162" s="79" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C162" s="86" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="D162" s="86" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E162" s="97" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="F162" s="97" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G162" s="104" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="H162" s="104" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I162" s="105" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="J162" s="105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="79" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B163" s="79" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C163" s="86" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D163" s="86" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E163" s="97" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F163" s="97" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G163" s="104" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="H163" s="104" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I163" s="105" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="J163" s="105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="79" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B164" s="79" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C164" s="86" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D164" s="86" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E164" s="97" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F164" s="97" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G164" s="104" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H164" s="104" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I164" s="105" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J164" s="105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="79" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B165" s="79" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C165" s="86" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D165" s="86" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E165" s="97" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F165" s="97" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G165" s="104" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="H165" s="104" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I165" s="105" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="J165" s="105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="79" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="B166" s="79" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C166" s="86" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="D166" s="86" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E166" s="97" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="F166" s="97" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G166" s="104" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="H166" s="104" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I166" s="105" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="J166" s="105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="79" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B167" s="79" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C167" s="86" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="D167" s="86" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E167" s="97" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="F167" s="97" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G167" s="104" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="H167" s="104" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I167" s="105" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="J167" s="105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="79" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="B168" s="79" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C168" s="86" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="D168" s="86" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E168" s="97" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="F168" s="97" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G168" s="104" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="H168" s="104" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I168" s="105" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="J168" s="105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="79" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B169" s="79" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C169" s="86" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D169" s="86" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E169" s="97" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F169" s="97" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G169" s="104" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H169" s="104" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I169" s="105" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J169" s="105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="79" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B170" s="79" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C170" s="86" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D170" s="86" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E170" s="97" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F170" s="97" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G170" s="104" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H170" s="104" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I170" s="105" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J170" s="105" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="53" t="s">
+      <c r="A171" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="B171" s="79" t="s">
+        <v>344</v>
+      </c>
+      <c r="C171" s="86" t="s">
+        <v>300</v>
+      </c>
+      <c r="D171" s="86" t="s">
+        <v>340</v>
+      </c>
+      <c r="E171" s="97" t="s">
+        <v>300</v>
+      </c>
+      <c r="F171" s="97" t="s">
+        <v>344</v>
+      </c>
+      <c r="G171" s="104" t="s">
+        <v>300</v>
+      </c>
+      <c r="H171" s="104" t="s">
+        <v>306</v>
+      </c>
+      <c r="I171" s="105" t="s">
+        <v>300</v>
+      </c>
+      <c r="J171" s="105" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="79" t="s">
+        <v>302</v>
+      </c>
+      <c r="B172" s="79" t="s">
+        <v>344</v>
+      </c>
+      <c r="C172" s="86" t="s">
+        <v>302</v>
+      </c>
+      <c r="D172" s="86" t="s">
+        <v>340</v>
+      </c>
+      <c r="E172" s="97" t="s">
+        <v>302</v>
+      </c>
+      <c r="F172" s="97" t="s">
+        <v>344</v>
+      </c>
+      <c r="G172" s="104" t="s">
+        <v>302</v>
+      </c>
+      <c r="H172" s="104" t="s">
+        <v>306</v>
+      </c>
+      <c r="I172" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="J172" s="105" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="B171" s="54"/>
-      <c r="C171" s="56" t="s">
+      <c r="B173" s="54"/>
+      <c r="C173" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="D171" s="57"/>
-      <c r="E171" s="64" t="s">
+      <c r="D173" s="57"/>
+      <c r="E173" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="F171" s="65"/>
-      <c r="G171" s="72"/>
-      <c r="H171" s="72"/>
-      <c r="I171" s="72"/>
-      <c r="J171" s="72"/>
-    </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="B172" s="58" t="s">
-        <v>339</v>
-      </c>
-      <c r="C172" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="D172" s="59" t="s">
-        <v>343</v>
-      </c>
-      <c r="E172" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="F172" s="144" t="n">
-        <v>8</v>
-      </c>
-      <c r="G172" s="72"/>
-      <c r="H172" s="72"/>
-      <c r="I172" s="72"/>
-      <c r="J172" s="72"/>
-    </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="B173" s="58" t="s">
-        <v>339</v>
-      </c>
-      <c r="C173" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="D173" s="59" t="s">
-        <v>343</v>
-      </c>
-      <c r="E173" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="F173" s="144" t="n">
-        <v>8</v>
-      </c>
+      <c r="F173" s="65"/>
       <c r="G173" s="72"/>
       <c r="H173" s="72"/>
       <c r="I173" s="72"/>
@@ -20137,22 +20228,22 @@
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="58" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B174" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C174" s="59" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D174" s="59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E174" s="68" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F174" s="144" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G174" s="72"/>
       <c r="H174" s="72"/>
@@ -20161,22 +20252,22 @@
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="58" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="B175" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C175" s="59" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="D175" s="59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E175" s="68" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="F175" s="144" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G175" s="72"/>
       <c r="H175" s="72"/>
@@ -20185,19 +20276,19 @@
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="58" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="B176" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C176" s="59" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="D176" s="59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E176" s="68" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="F176" s="144" t="n">
         <v>9</v>
@@ -20209,22 +20300,22 @@
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="58" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="B177" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C177" s="59" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="D177" s="59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E177" s="68" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="F177" s="144" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G177" s="72"/>
       <c r="H177" s="72"/>
@@ -20233,22 +20324,22 @@
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="58" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B178" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C178" s="59" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D178" s="59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E178" s="68" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F178" s="144" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G178" s="72"/>
       <c r="H178" s="72"/>
@@ -20257,22 +20348,22 @@
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="58" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B179" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C179" s="59" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D179" s="59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E179" s="68" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F179" s="144" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G179" s="72"/>
       <c r="H179" s="72"/>
@@ -20281,22 +20372,22 @@
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="58" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B180" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C180" s="59" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D180" s="59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E180" s="68" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F180" s="144" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G180" s="72"/>
       <c r="H180" s="72"/>
@@ -20305,22 +20396,22 @@
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="58" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="B181" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C181" s="59" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="D181" s="59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E181" s="68" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="F181" s="144" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G181" s="72"/>
       <c r="H181" s="72"/>
@@ -20329,19 +20420,19 @@
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="58" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B182" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C182" s="59" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="D182" s="59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E182" s="68" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="F182" s="144" t="n">
         <v>9</v>
@@ -20353,22 +20444,22 @@
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="58" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="B183" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C183" s="59" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="D183" s="59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E183" s="68" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="F183" s="144" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G183" s="72"/>
       <c r="H183" s="72"/>
@@ -20377,22 +20468,22 @@
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="58" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B184" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C184" s="59" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D184" s="59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E184" s="68" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F184" s="144" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G184" s="72"/>
       <c r="H184" s="72"/>
@@ -20401,40 +20492,88 @@
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="58" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B185" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C185" s="59" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D185" s="59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E185" s="68" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F185" s="144" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G185" s="72"/>
       <c r="H185" s="72"/>
       <c r="I185" s="72"/>
       <c r="J185" s="72"/>
     </row>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="B186" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="C186" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="D186" s="59" t="s">
+        <v>344</v>
+      </c>
+      <c r="E186" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="F186" s="144" t="n">
+        <v>8</v>
+      </c>
+      <c r="G186" s="72"/>
+      <c r="H186" s="72"/>
+      <c r="I186" s="72"/>
+      <c r="J186" s="72"/>
+    </row>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="B187" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="C187" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="D187" s="59" t="s">
+        <v>344</v>
+      </c>
+      <c r="E187" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="F187" s="144" t="n">
+        <v>10</v>
+      </c>
+      <c r="G187" s="72"/>
+      <c r="H187" s="72"/>
+      <c r="I187" s="72"/>
+      <c r="J187" s="72"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A79:J79"/>
-    <mergeCell ref="A140:J140"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A81:J81"/>
+    <mergeCell ref="A142:J142"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:J2 B33:J185 B3:F32 A2:A185">
+  <conditionalFormatting sqref="B1:J2 B35:J187 A2:A187 B3:F34">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>FIND(TRIM($A$1),#REF! )</formula>
+      <formula>FIND(TRIM($A$1),#ref! )</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -20466,7 +20605,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="66.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="53.43"/>
@@ -20474,7 +20613,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -20483,7 +20622,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="145" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B2" s="145"/>
       <c r="C2" s="145"/>
@@ -20499,10 +20638,10 @@
       <c r="B3" s="145"/>
       <c r="C3" s="145"/>
       <c r="D3" s="146" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20510,10 +20649,10 @@
       <c r="B4" s="145"/>
       <c r="C4" s="145"/>
       <c r="D4" s="147" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20521,13 +20660,13 @@
       <c r="B5" s="145"/>
       <c r="C5" s="145"/>
       <c r="D5" s="51" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E5" s="148"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="149" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B6" s="149"/>
       <c r="C6" s="149"/>
@@ -20540,7 +20679,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>15</v>
@@ -20551,7 +20690,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="51" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D8" s="51" t="s">
         <v>17</v>
@@ -20562,7 +20701,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="51" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>19</v>
@@ -20601,7 +20740,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20609,7 +20748,7 @@
       <c r="B13" s="73"/>
       <c r="C13" s="73"/>
       <c r="D13" s="51" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E13" s="148"/>
     </row>
